--- a/biology/Botanique/Onoclée_sensible/Onoclée_sensible.xlsx
+++ b/biology/Botanique/Onoclée_sensible/Onoclée_sensible.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Onocl%C3%A9e_sensible</t>
+          <t>Onoclée_sensible</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Onoclea sensibilis
-L'Onoclée sensible[1] (Onoclea sensibilis) est une espèce de petites fougères de la famille des Onocleacées.
+L'Onoclée sensible (Onoclea sensibilis) est une espèce de petites fougères de la famille des Onocleacées.
 Elle est native tant d'Amérique du nord (Est du Canada, Est des États-Unis) que d'Asie orientale (Russie -îles Kouriles, Sakhaline-, Chine, Japon, Corée).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Onocl%C3%A9e_sensible</t>
+          <t>Onoclée_sensible</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Onoclée sensible est dotée d'un rhizome rampant, formant sans cesse de nouvelles plantes et portant deux sortes de frondes : les unes purement végétatives, vert clair à très clair, foliacées, disparaissant à l'époque des gelées, les autres fructifères, rigides, persistant tout l'hiver, à divisions primaires contractées en un chapelet d'enveloppes sphériques qui dissimulent les spores.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Onocl%C3%A9e_sensible</t>
+          <t>Onoclée_sensible</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan, le rhizome de l'Onoclée sensible aurait autrefois été consommé par les amérindiens, après cuisson[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan, le rhizome de l'Onoclée sensible aurait autrefois été consommé par les amérindiens, après cuisson
 </t>
         </is>
       </c>
